--- a/PREGAME/1. ELICITACIÓN/1.2 Cronograma/Cronograma-Grupo7_V2.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.2 Cronograma/Cronograma-Grupo7_V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b1349916b205fbc/ESPE-SEPTIMO/ANALISIS Y DISEÑO DE SOFTWARE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3910DB-7619-4294-9B98-915D53F5A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1C3910DB-7619-4294-9B98-915D53F5A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0B155AF-10B9-49BD-8D03-8641AA233D0B}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="885" windowWidth="22500" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="apR0/altdsj9JlJL2oWIysHYLnML/4bEqcrDn0KDTZc="/>
@@ -588,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1379,7 @@
         <v>45305</v>
       </c>
       <c r="G18" s="5">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>32</v>

--- a/PREGAME/1. ELICITACIÓN/1.2 Cronograma/Cronograma-Grupo7_V2.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.2 Cronograma/Cronograma-Grupo7_V2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b1349916b205fbc/ESPE-SEPTIMO/ANALISIS Y DISEÑO DE SOFTWARE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1C3910DB-7619-4294-9B98-915D53F5A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0B155AF-10B9-49BD-8D03-8641AA233D0B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1C3910DB-7619-4294-9B98-915D53F5A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25BCCC4D-0540-44E7-896E-7B06C2DEC36F}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="885" windowWidth="22500" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="A1:Z1019"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I14" sqref="I14:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1246,8 +1246,8 @@
       <c r="H15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>22</v>
+      <c r="I15" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>17</v>
@@ -1292,8 +1292,8 @@
       <c r="H16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>22</v>
+      <c r="I16" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>17</v>
@@ -1338,8 +1338,8 @@
       <c r="H17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>22</v>
+      <c r="I17" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>17</v>
@@ -1379,13 +1379,13 @@
         <v>45305</v>
       </c>
       <c r="G18" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>22</v>
+      <c r="I18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>17</v>
